--- a/ТестированиеB2CRT.xlsx
+++ b/ТестированиеB2CRT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merlinrd\Documents\MyProject\Python_Training\Final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E42F58E-B6CC-405B-92B4-8FC450EAB49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D4EC55-2F84-444B-8910-C78A5CB0537A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22350" yWindow="60" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HBCPRR-2023-04-02" sheetId="1" r:id="rId1"/>
@@ -1232,8 +1232,8 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
@@ -2191,7 +2191,7 @@
         <v>4</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
